--- a/maps/data/demo.xlsx
+++ b/maps/data/demo.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="151">
   <si>
     <t>编号</t>
   </si>
@@ -56,7 +56,7 @@
     <t>备注</t>
   </si>
   <si>
-    <t>处置状态</t>
+    <t>是否显示</t>
   </si>
   <si>
     <t>积水点</t>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>舆情，关注重点</t>
+  </si>
+  <si>
+    <t>是</t>
   </si>
   <si>
     <t>西五街和龙湖路口</t>
@@ -338,10 +341,7 @@
   </si>
   <si>
     <t>120.601922°E
-27.545877°N
-/
-120.614949°E
-27.513150°N</t>
+27.545877°N</t>
   </si>
   <si>
     <t xml:space="preserve">1、道路沉降，管道破损及堵塞；
@@ -419,6 +419,126 @@
   </si>
   <si>
     <t>1、水务公司：已改造完成（新增雨篦），后续跟进观察；</t>
+  </si>
+  <si>
+    <t>避灾点</t>
+  </si>
+  <si>
+    <t>二中</t>
+  </si>
+  <si>
+    <t>120.55651038,27.57505425</t>
+  </si>
+  <si>
+    <t>可容纳人数500</t>
+  </si>
+  <si>
+    <t>外国语小学新城校区</t>
+  </si>
+  <si>
+    <t>120.608454, 27.572549</t>
+  </si>
+  <si>
+    <t>可容纳人数800</t>
+  </si>
+  <si>
+    <t>职业中专新城校区</t>
+  </si>
+  <si>
+    <t>120.622799, 27.525251</t>
+  </si>
+  <si>
+    <t>可容纳人数1000</t>
+  </si>
+  <si>
+    <t>姜立夫小学</t>
+  </si>
+  <si>
+    <t>120.56935445,27.56009679</t>
+  </si>
+  <si>
+    <t>十三小</t>
+  </si>
+  <si>
+    <t>120.58067285,27.57615819</t>
+  </si>
+  <si>
+    <t>二小</t>
+  </si>
+  <si>
+    <t>120.62462546,27.48440022</t>
+  </si>
+  <si>
+    <t>可容纳人数400</t>
+  </si>
+  <si>
+    <t>九中</t>
+  </si>
+  <si>
+    <t>120.52072158,27.56722020</t>
+  </si>
+  <si>
+    <t>可容纳人数350</t>
+  </si>
+  <si>
+    <t>十二小</t>
+  </si>
+  <si>
+    <t>120.54403082,27.55000113</t>
+  </si>
+  <si>
+    <t>十四中</t>
+  </si>
+  <si>
+    <t>可容纳人数300</t>
+  </si>
+  <si>
+    <t>实验小学</t>
+  </si>
+  <si>
+    <t>120.62217463,27.49457940</t>
+  </si>
+  <si>
+    <t>实验中学</t>
+  </si>
+  <si>
+    <t>120.535600, 27.561900</t>
+  </si>
+  <si>
+    <t>四中</t>
+  </si>
+  <si>
+    <t>120.527255, 27.583629</t>
+  </si>
+  <si>
+    <t>龙港一小</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>龙港三中</t>
+  </si>
+  <si>
+    <t>龙港宏程小学</t>
+  </si>
+  <si>
+    <t>龙港九小</t>
+  </si>
+  <si>
+    <t>江南实验小学</t>
+  </si>
+  <si>
+    <t>潜龙学校</t>
+  </si>
+  <si>
+    <t>海城小学</t>
+  </si>
+  <si>
+    <t>江山小学</t>
+  </si>
+  <si>
+    <t>龙港体育馆</t>
   </si>
 </sst>
 </file>
@@ -431,7 +551,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -451,6 +571,30 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="仿宋_GB2312"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="仿宋_GB2312"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -797,11 +941,24 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -938,137 +1095,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1093,41 +1250,62 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1654,20 +1832,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="143" zoomScaleNormal="143" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="7.4375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="7" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.7053571428571" style="4" customWidth="1"/>
     <col min="3" max="3" width="34.6428571428571" style="5" customWidth="1"/>
-    <col min="4" max="4" width="17.3303571428571" style="4" customWidth="1"/>
+    <col min="4" max="4" width="29.9642857142857" style="4" customWidth="1"/>
     <col min="5" max="5" width="40.1071428571429" style="4" customWidth="1"/>
     <col min="6" max="6" width="33.2232142857143" style="4" customWidth="1"/>
     <col min="7" max="7" width="16.0714285714286" style="4" customWidth="1"/>
@@ -1694,7 +1872,7 @@
       <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="18" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="6" t="s">
@@ -1717,20 +1895,20 @@
       <c r="D2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="17" t="b">
-        <v>0</v>
+      <c r="I2" s="26" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="84" spans="1:9">
@@ -1741,25 +1919,25 @@
         <v>9</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="E3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="F3" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="17" t="b">
-        <v>1</v>
+      <c r="I3" s="26" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="84" spans="1:9">
@@ -1770,24 +1948,26 @@
         <v>9</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="18"/>
+      <c r="I4" s="26" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="47" customHeight="1" spans="1:9">
       <c r="A5" s="10">
@@ -1796,23 +1976,25 @@
       <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="D5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="E5" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="F5" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="18"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="26" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="68" spans="1:9">
       <c r="A6" s="10">
@@ -1821,23 +2003,25 @@
       <c r="B6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="D6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="E6" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="F6" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="17"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="26" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="62" customHeight="1" spans="1:9">
       <c r="A7" s="10">
@@ -1846,23 +2030,25 @@
       <c r="B7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="C7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="16" t="s">
+      <c r="D7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="E7" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="17"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="26" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="79" customHeight="1" spans="1:9">
       <c r="A8" s="10">
@@ -1871,23 +2057,25 @@
       <c r="B8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="C8" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="D8" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="E8" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="F8" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="17"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="26" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="59" customHeight="1" spans="1:9">
       <c r="A9" s="10">
@@ -1896,23 +2084,25 @@
       <c r="B9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="C9" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="D9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="17" t="s">
+      <c r="E9" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="17"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="26" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="84" spans="1:9">
       <c r="A10" s="10">
@@ -1921,23 +2111,25 @@
       <c r="B10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="7" t="s">
+      <c r="C10" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="D10" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="E10" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="F10" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="17"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="26" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="55" customHeight="1" spans="1:9">
       <c r="A11" s="10">
@@ -1946,23 +2138,25 @@
       <c r="B11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="C11" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="D11" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="E11" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="F11" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="17"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="26" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="65" customHeight="1" spans="1:9">
       <c r="A12" s="10">
@@ -1971,23 +2165,25 @@
       <c r="B12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="C12" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="D12" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="E12" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="F12" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="17"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="26" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="13" s="2" customFormat="1" ht="76" customHeight="1" spans="1:9">
       <c r="A13" s="10">
@@ -1996,23 +2192,25 @@
       <c r="B13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="C13" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="D13" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="E13" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="F13" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="18"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="26" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="14" s="2" customFormat="1" ht="84" spans="1:9">
       <c r="A14" s="10">
@@ -2021,23 +2219,25 @@
       <c r="B14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="18"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="26" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="84" spans="1:9">
       <c r="A15" s="10">
@@ -2046,23 +2246,25 @@
       <c r="B15" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="7" t="s">
+      <c r="C15" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="D15" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="E15" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="F15" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="17"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="26" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="69" customHeight="1" spans="1:9">
       <c r="A16" s="10">
@@ -2071,23 +2273,25 @@
       <c r="B16" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="7" t="s">
+      <c r="C16" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="D16" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="E16" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="F16" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="H16" s="16"/>
-      <c r="I16" s="17"/>
+      <c r="G16" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="22"/>
+      <c r="I16" s="26" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="54" customHeight="1" spans="1:9">
       <c r="A17" s="10">
@@ -2096,23 +2300,25 @@
       <c r="B17" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="H17" s="16"/>
-      <c r="I17" s="17"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="26" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="18" s="2" customFormat="1" ht="52" customHeight="1" spans="1:9">
       <c r="A18" s="10">
@@ -2121,23 +2327,25 @@
       <c r="B18" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="H18" s="16"/>
-      <c r="I18" s="18"/>
+      <c r="G18" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" s="22"/>
+      <c r="I18" s="26" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="64" customHeight="1" spans="1:9">
       <c r="A19" s="10">
@@ -2146,23 +2354,25 @@
       <c r="B19" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" s="11" t="s">
+      <c r="C19" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="D19" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="E19" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="G19" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="H19" s="16"/>
-      <c r="I19" s="17"/>
+      <c r="F19" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" s="22"/>
+      <c r="I19" s="26" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="51" customHeight="1" spans="1:9">
       <c r="A20" s="10">
@@ -2171,23 +2381,25 @@
       <c r="B20" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" s="11" t="s">
+      <c r="C20" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="D20" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F20" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="H20" s="16"/>
-      <c r="I20" s="17"/>
+      <c r="E20" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" s="22"/>
+      <c r="I20" s="26" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="51" spans="1:9">
       <c r="A21" s="10">
@@ -2196,50 +2408,54 @@
       <c r="B21" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" s="7" t="s">
+      <c r="C21" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="D21" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="F21" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="H21" s="17" t="s">
+      <c r="E21" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I21" s="17"/>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="84" spans="1:9">
+      <c r="F21" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="I21" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="34" spans="1:9">
       <c r="A22" s="10">
         <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22" s="7" t="s">
+      <c r="C22" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="D22" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="E22" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="F22" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="H22" s="16"/>
-      <c r="I22" s="17"/>
+      <c r="G22" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="H22" s="22"/>
+      <c r="I22" s="26" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="68" spans="1:9">
       <c r="A23" s="10">
@@ -2248,23 +2464,25 @@
       <c r="B23" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="H23" s="16"/>
-      <c r="I23" s="17"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="26" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="34" spans="1:9">
       <c r="A24" s="10">
@@ -2273,23 +2491,25 @@
       <c r="B24" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" s="7" t="s">
+      <c r="C24" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="D24" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="F24" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="G24" s="17" t="s">
+      <c r="E24" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="F24" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="H24" s="16"/>
-      <c r="I24" s="17"/>
+      <c r="G24" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="H24" s="22"/>
+      <c r="I24" s="26" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="34" spans="1:9">
       <c r="A25" s="10">
@@ -2298,23 +2518,25 @@
       <c r="B25" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="H25" s="16"/>
-      <c r="I25" s="17"/>
+      <c r="F25" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="H25" s="22"/>
+      <c r="I25" s="26" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="34" spans="1:9">
       <c r="A26" s="10">
@@ -2323,23 +2545,25 @@
       <c r="B26" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D26" s="7" t="s">
+      <c r="C26" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="E26" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="G26" s="17" t="s">
+      <c r="D26" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="H26" s="16"/>
-      <c r="I26" s="17"/>
+      <c r="G26" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="H26" s="22"/>
+      <c r="I26" s="26" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="27" s="3" customFormat="1" ht="34" spans="1:9">
       <c r="A27" s="10">
@@ -2348,23 +2572,25 @@
       <c r="B27" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D27" s="7" t="s">
+      <c r="C27" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="D27" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="F27" s="16" t="s">
+      <c r="E27" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="G27" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="H27" s="16"/>
-      <c r="I27" s="19"/>
+      <c r="F27" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="H27" s="22"/>
+      <c r="I27" s="26" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="34" spans="1:9">
       <c r="A28" s="10">
@@ -2373,23 +2599,472 @@
       <c r="B28" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="G28" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="H28" s="22"/>
+      <c r="I28" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" ht="18" spans="1:9">
+      <c r="A29" s="13">
+        <v>100</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" ht="18" spans="1:9">
+      <c r="A30" s="13">
+        <v>101</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" ht="18" spans="1:9">
+      <c r="A31" s="13">
+        <v>102</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" ht="18" spans="1:9">
+      <c r="A32" s="13">
+        <v>103</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" ht="18" spans="1:9">
+      <c r="A33" s="13">
+        <v>104</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" ht="18" spans="1:9">
+      <c r="A34" s="13">
+        <v>105</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" ht="18" spans="1:9">
+      <c r="A35" s="13">
         <v>106</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="B35" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" ht="18" spans="1:9">
+      <c r="A36" s="13">
         <v>107</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="B36" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" ht="18" spans="1:9">
+      <c r="A37" s="13">
         <v>108</v>
       </c>
-      <c r="F28" s="16" t="s">
+      <c r="B37" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" ht="18" spans="1:9">
+      <c r="A38" s="13">
         <v>109</v>
       </c>
-      <c r="G28" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="H28" s="16"/>
-      <c r="I28" s="17"/>
+      <c r="B38" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" ht="18" spans="1:9">
+      <c r="A39" s="13">
+        <v>110</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" ht="18" spans="1:9">
+      <c r="A40" s="13">
+        <v>111</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" ht="18" spans="1:9">
+      <c r="A41" s="13">
+        <v>112</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" ht="18" spans="1:9">
+      <c r="A42" s="13">
+        <v>113</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" ht="18" spans="1:9">
+      <c r="A43" s="13">
+        <v>114</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" ht="18" spans="1:9">
+      <c r="A44" s="13">
+        <v>115</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" ht="18" spans="1:9">
+      <c r="A45" s="13">
+        <v>116</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" ht="18" spans="1:9">
+      <c r="A46" s="13">
+        <v>117</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" ht="18" spans="1:9">
+      <c r="A47" s="13">
+        <v>118</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="48" ht="18" spans="1:9">
+      <c r="A48" s="13">
+        <v>119</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49" ht="18" spans="1:9">
+      <c r="A49" s="13">
+        <v>120</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17" t="s">
+        <v>142</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>

--- a/maps/data/demo.xlsx
+++ b/maps/data/demo.xlsx
@@ -7,10 +7,10 @@
     <workbookView windowWidth="32460" windowHeight="15060"/>
   </bookViews>
   <sheets>
-    <sheet name="龙港市2025年积水点" sheetId="1" r:id="rId1"/>
+    <sheet name="龙港市2025年避灾点及积水点" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">龙港市2025年积水点!$B$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">龙港市2025年避灾点及积水点!$B$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1225,7 +1225,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1303,9 +1303,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1837,7 +1834,7 @@
     <sheetView tabSelected="1" zoomScale="143" zoomScaleNormal="143" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
+      <selection pane="bottomLeft" activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
@@ -1907,7 +1904,7 @@
       <c r="H2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="23" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1936,7 +1933,7 @@
       <c r="H3" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="23" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1965,7 +1962,7 @@
       <c r="H4" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="23" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1992,7 +1989,7 @@
         <v>14</v>
       </c>
       <c r="H5" s="22"/>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="23" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2019,7 +2016,7 @@
         <v>14</v>
       </c>
       <c r="H6" s="22"/>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="23" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2046,7 +2043,7 @@
         <v>14</v>
       </c>
       <c r="H7" s="22"/>
-      <c r="I7" s="26" t="s">
+      <c r="I7" s="23" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2073,7 +2070,7 @@
         <v>14</v>
       </c>
       <c r="H8" s="22"/>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="23" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2100,7 +2097,7 @@
         <v>14</v>
       </c>
       <c r="H9" s="22"/>
-      <c r="I9" s="26" t="s">
+      <c r="I9" s="23" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2127,7 +2124,7 @@
         <v>14</v>
       </c>
       <c r="H10" s="22"/>
-      <c r="I10" s="26" t="s">
+      <c r="I10" s="23" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2154,7 +2151,7 @@
         <v>14</v>
       </c>
       <c r="H11" s="22"/>
-      <c r="I11" s="26" t="s">
+      <c r="I11" s="23" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2181,7 +2178,7 @@
         <v>14</v>
       </c>
       <c r="H12" s="22"/>
-      <c r="I12" s="26" t="s">
+      <c r="I12" s="23" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2208,7 +2205,7 @@
         <v>14</v>
       </c>
       <c r="H13" s="22"/>
-      <c r="I13" s="26" t="s">
+      <c r="I13" s="23" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2235,7 +2232,7 @@
         <v>14</v>
       </c>
       <c r="H14" s="22"/>
-      <c r="I14" s="26" t="s">
+      <c r="I14" s="23" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2262,7 +2259,7 @@
         <v>14</v>
       </c>
       <c r="H15" s="22"/>
-      <c r="I15" s="26" t="s">
+      <c r="I15" s="23" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2289,7 +2286,7 @@
         <v>68</v>
       </c>
       <c r="H16" s="22"/>
-      <c r="I16" s="26" t="s">
+      <c r="I16" s="23" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2316,7 +2313,7 @@
         <v>68</v>
       </c>
       <c r="H17" s="22"/>
-      <c r="I17" s="26" t="s">
+      <c r="I17" s="23" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2343,7 +2340,7 @@
         <v>68</v>
       </c>
       <c r="H18" s="22"/>
-      <c r="I18" s="26" t="s">
+      <c r="I18" s="23" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2370,7 +2367,7 @@
         <v>68</v>
       </c>
       <c r="H19" s="22"/>
-      <c r="I19" s="26" t="s">
+      <c r="I19" s="23" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2397,7 +2394,7 @@
         <v>68</v>
       </c>
       <c r="H20" s="22"/>
-      <c r="I20" s="26" t="s">
+      <c r="I20" s="23" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2426,7 +2423,7 @@
       <c r="H21" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="I21" s="26" t="s">
+      <c r="I21" s="23" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2453,7 +2450,7 @@
         <v>90</v>
       </c>
       <c r="H22" s="22"/>
-      <c r="I22" s="26" t="s">
+      <c r="I22" s="23" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2480,7 +2477,7 @@
         <v>90</v>
       </c>
       <c r="H23" s="22"/>
-      <c r="I23" s="26" t="s">
+      <c r="I23" s="23" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2507,7 +2504,7 @@
         <v>90</v>
       </c>
       <c r="H24" s="22"/>
-      <c r="I24" s="26" t="s">
+      <c r="I24" s="23" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2534,7 +2531,7 @@
         <v>90</v>
       </c>
       <c r="H25" s="22"/>
-      <c r="I25" s="26" t="s">
+      <c r="I25" s="23" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2561,7 +2558,7 @@
         <v>90</v>
       </c>
       <c r="H26" s="22"/>
-      <c r="I26" s="26" t="s">
+      <c r="I26" s="23" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2588,7 +2585,7 @@
         <v>90</v>
       </c>
       <c r="H27" s="22"/>
-      <c r="I27" s="26" t="s">
+      <c r="I27" s="23" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2615,7 +2612,7 @@
         <v>90</v>
       </c>
       <c r="H28" s="22"/>
-      <c r="I28" s="26" t="s">
+      <c r="I28" s="23" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2638,7 +2635,7 @@
       <c r="F29" s="25"/>
       <c r="G29" s="25"/>
       <c r="H29" s="25"/>
-      <c r="I29" s="26" t="s">
+      <c r="I29" s="23" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2661,7 +2658,7 @@
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
       <c r="H30" s="17"/>
-      <c r="I30" s="26" t="s">
+      <c r="I30" s="23" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2684,7 +2681,7 @@
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
-      <c r="I31" s="26" t="s">
+      <c r="I31" s="23" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2707,7 +2704,7 @@
       <c r="F32" s="17"/>
       <c r="G32" s="17"/>
       <c r="H32" s="17"/>
-      <c r="I32" s="26" t="s">
+      <c r="I32" s="23" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2730,7 +2727,7 @@
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
       <c r="H33" s="17"/>
-      <c r="I33" s="26" t="s">
+      <c r="I33" s="23" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2753,7 +2750,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
       <c r="H34" s="17"/>
-      <c r="I34" s="26" t="s">
+      <c r="I34" s="23" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2776,7 +2773,7 @@
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
-      <c r="I35" s="26" t="s">
+      <c r="I35" s="23" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2799,7 +2796,7 @@
       <c r="F36" s="17"/>
       <c r="G36" s="17"/>
       <c r="H36" s="17"/>
-      <c r="I36" s="26" t="s">
+      <c r="I36" s="23" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2822,7 +2819,7 @@
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>
       <c r="H37" s="17"/>
-      <c r="I37" s="26" t="s">
+      <c r="I37" s="23" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2845,7 +2842,7 @@
       <c r="F38" s="17"/>
       <c r="G38" s="17"/>
       <c r="H38" s="17"/>
-      <c r="I38" s="26" t="s">
+      <c r="I38" s="23" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2868,7 +2865,7 @@
       <c r="F39" s="17"/>
       <c r="G39" s="17"/>
       <c r="H39" s="17"/>
-      <c r="I39" s="26" t="s">
+      <c r="I39" s="23" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2891,7 +2888,7 @@
       <c r="F40" s="17"/>
       <c r="G40" s="17"/>
       <c r="H40" s="17"/>
-      <c r="I40" s="26" t="s">
+      <c r="I40" s="23" t="s">
         <v>16</v>
       </c>
     </row>

--- a/maps/data/demo.xlsx
+++ b/maps/data/demo.xlsx
@@ -7,10 +7,11 @@
     <workbookView windowWidth="32460" windowHeight="15060"/>
   </bookViews>
   <sheets>
-    <sheet name="龙港市2025年避灾点及积水点" sheetId="1" r:id="rId1"/>
+    <sheet name="龙港市2025年积水点" sheetId="1" r:id="rId1"/>
+    <sheet name="避灾点" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">龙港市2025年避灾点及积水点!$B$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">龙港市2025年积水点!$B$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="166">
   <si>
     <t>编号</t>
   </si>
@@ -421,6 +422,15 @@
     <t>1、水务公司：已改造完成（新增雨篦），后续跟进观察；</t>
   </si>
   <si>
+    <t>计划避灾单位</t>
+  </si>
+  <si>
+    <t>计划避灾人数</t>
+  </si>
+  <si>
+    <t>已容纳人数</t>
+  </si>
+  <si>
     <t>避灾点</t>
   </si>
   <si>
@@ -433,6 +443,9 @@
     <t>可容纳人数500</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>外国语小学新城校区</t>
   </si>
   <si>
@@ -442,6 +455,9 @@
     <t>可容纳人数800</t>
   </si>
   <si>
+    <t>B</t>
+  </si>
+  <si>
     <t>职业中专新城校区</t>
   </si>
   <si>
@@ -451,6 +467,9 @@
     <t>可容纳人数1000</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>姜立夫小学</t>
   </si>
   <si>
@@ -514,31 +533,58 @@
     <t>龙港一小</t>
   </si>
   <si>
+    <t>120.535600, 27.561901</t>
+  </si>
+  <si>
     <t>否</t>
   </si>
   <si>
     <t>龙港三中</t>
   </si>
   <si>
+    <t>120.527255, 27.583630</t>
+  </si>
+  <si>
     <t>龙港宏程小学</t>
   </si>
   <si>
+    <t>120.535600, 27.561902</t>
+  </si>
+  <si>
     <t>龙港九小</t>
   </si>
   <si>
+    <t>120.527255, 27.583631</t>
+  </si>
+  <si>
     <t>江南实验小学</t>
   </si>
   <si>
+    <t>120.535600, 27.561903</t>
+  </si>
+  <si>
     <t>潜龙学校</t>
   </si>
   <si>
+    <t>120.527255, 27.583632</t>
+  </si>
+  <si>
     <t>海城小学</t>
   </si>
   <si>
+    <t>120.535600, 27.561904</t>
+  </si>
+  <si>
     <t>江山小学</t>
   </si>
   <si>
+    <t>120.527255, 27.583633</t>
+  </si>
+  <si>
     <t>龙港体育馆</t>
+  </si>
+  <si>
+    <t>120.535600, 27.561905</t>
   </si>
 </sst>
 </file>
@@ -555,13 +601,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -584,17 +623,22 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -741,18 +785,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1101,7 +1139,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1125,16 +1163,16 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1143,85 +1181,85 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1229,10 +1267,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -1244,65 +1321,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1829,1238 +1867,791 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="143" zoomScaleNormal="143" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C57" sqref="C57"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="7.4375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="10.7053571428571" style="4" customWidth="1"/>
-    <col min="3" max="3" width="34.6428571428571" style="5" customWidth="1"/>
-    <col min="4" max="4" width="29.9642857142857" style="4" customWidth="1"/>
-    <col min="5" max="5" width="40.1071428571429" style="4" customWidth="1"/>
-    <col min="6" max="6" width="33.2232142857143" style="4" customWidth="1"/>
-    <col min="7" max="7" width="16.0714285714286" style="4" customWidth="1"/>
-    <col min="8" max="8" width="16.3303571428571" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9.14285714285714" style="4"/>
+    <col min="1" max="1" width="7.4375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="10.7053571428571" style="17" customWidth="1"/>
+    <col min="3" max="3" width="34.6428571428571" style="18" customWidth="1"/>
+    <col min="4" max="4" width="29.9642857142857" style="17" customWidth="1"/>
+    <col min="5" max="5" width="40.1071428571429" style="17" customWidth="1"/>
+    <col min="6" max="6" width="33.2232142857143" style="17" customWidth="1"/>
+    <col min="7" max="7" width="16.0714285714286" style="17" customWidth="1"/>
+    <col min="8" max="8" width="16.3303571428571" style="17" customWidth="1"/>
+    <col min="9" max="16384" width="9.14285714285714" style="17"/>
   </cols>
   <sheetData>
     <row r="1" ht="27" customHeight="1" spans="1:9">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="81" customHeight="1" spans="1:9">
-      <c r="A2" s="8">
+    <row r="2" s="14" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="A2" s="19">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="84" spans="1:9">
-      <c r="A3" s="8">
+      <c r="I2" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" s="14" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="A3" s="19">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="84" spans="1:9">
-      <c r="A4" s="8">
+      <c r="I3" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" s="15" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="A4" s="19">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="47" customHeight="1" spans="1:9">
-      <c r="A5" s="10">
+      <c r="I4" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" s="15" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="A5" s="19">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="68" spans="1:9">
-      <c r="A6" s="10">
+      <c r="H5" s="23"/>
+      <c r="I5" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" s="14" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="A6" s="19">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="22"/>
-      <c r="I6" s="23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="62" customHeight="1" spans="1:9">
-      <c r="A7" s="10">
+      <c r="H6" s="23"/>
+      <c r="I6" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" s="14" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="A7" s="19">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="79" customHeight="1" spans="1:9">
-      <c r="A8" s="10">
+      <c r="H7" s="23"/>
+      <c r="I7" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" s="14" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="A8" s="19">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="59" customHeight="1" spans="1:9">
-      <c r="A9" s="10">
+      <c r="H8" s="23"/>
+      <c r="I8" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" s="14" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="A9" s="19">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="22"/>
-      <c r="I9" s="23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="84" spans="1:9">
-      <c r="A10" s="10">
+      <c r="H9" s="23"/>
+      <c r="I9" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" s="14" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="A10" s="19">
         <v>9</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="55" customHeight="1" spans="1:9">
-      <c r="A11" s="10">
+      <c r="H10" s="23"/>
+      <c r="I10" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" s="14" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="A11" s="19">
         <v>10</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="65" customHeight="1" spans="1:9">
-      <c r="A12" s="10">
+      <c r="H11" s="23"/>
+      <c r="I11" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" s="14" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="A12" s="19">
         <v>11</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="22"/>
-      <c r="I12" s="23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" s="2" customFormat="1" ht="76" customHeight="1" spans="1:9">
-      <c r="A13" s="10">
+      <c r="H12" s="23"/>
+      <c r="I12" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" s="15" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="A13" s="19">
         <v>12</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="G13" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="22"/>
-      <c r="I13" s="23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" s="2" customFormat="1" ht="84" spans="1:9">
-      <c r="A14" s="10">
+      <c r="H13" s="23"/>
+      <c r="I13" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" s="15" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="A14" s="19">
         <v>13</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="22"/>
-      <c r="I14" s="23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="84" spans="1:9">
-      <c r="A15" s="10">
+      <c r="H14" s="23"/>
+      <c r="I14" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" s="14" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="A15" s="19">
         <v>14</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="G15" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="22"/>
-      <c r="I15" s="23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="69" customHeight="1" spans="1:9">
-      <c r="A16" s="10">
+      <c r="H15" s="23"/>
+      <c r="I15" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" s="14" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="A16" s="19">
         <v>15</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="H16" s="22"/>
-      <c r="I16" s="23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="54" customHeight="1" spans="1:9">
-      <c r="A17" s="10">
-        <v>16</v>
-      </c>
-      <c r="B17" s="10" t="s">
+      <c r="H16" s="23"/>
+      <c r="I16" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" s="14" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="A17" s="19">
+        <v>16</v>
+      </c>
+      <c r="B17" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="G17" s="23" t="s">
+      <c r="G17" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="H17" s="22"/>
-      <c r="I17" s="23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" s="2" customFormat="1" ht="52" customHeight="1" spans="1:9">
-      <c r="A18" s="10">
+      <c r="H17" s="23"/>
+      <c r="I17" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" s="15" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="A18" s="19">
         <v>17</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="G18" s="23" t="s">
+      <c r="G18" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="H18" s="22"/>
-      <c r="I18" s="23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="64" customHeight="1" spans="1:9">
-      <c r="A19" s="10">
+      <c r="H18" s="23"/>
+      <c r="I18" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" s="14" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="A19" s="19">
         <v>18</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="G19" s="23" t="s">
+      <c r="G19" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="H19" s="22"/>
-      <c r="I19" s="23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="51" customHeight="1" spans="1:9">
-      <c r="A20" s="10">
+      <c r="H19" s="23"/>
+      <c r="I19" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" s="14" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="A20" s="19">
         <v>19</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="G20" s="23" t="s">
+      <c r="G20" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="H20" s="22"/>
-      <c r="I20" s="23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="51" spans="1:9">
-      <c r="A21" s="10">
+      <c r="H20" s="23"/>
+      <c r="I20" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" s="14" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="A21" s="19">
         <v>20</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="G21" s="23" t="s">
+      <c r="G21" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="H21" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="I21" s="23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="34" spans="1:9">
-      <c r="A22" s="10">
+      <c r="I21" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" s="14" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="A22" s="19">
         <v>21</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="G22" s="23" t="s">
+      <c r="G22" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="H22" s="22"/>
-      <c r="I22" s="23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="68" spans="1:9">
-      <c r="A23" s="10">
+      <c r="H22" s="23"/>
+      <c r="I22" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" s="14" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="A23" s="19">
         <v>22</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F23" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="G23" s="23" t="s">
+      <c r="G23" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="H23" s="22"/>
-      <c r="I23" s="23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="34" spans="1:9">
-      <c r="A24" s="10">
+      <c r="H23" s="23"/>
+      <c r="I23" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" s="14" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="A24" s="19">
         <v>23</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="F24" s="22" t="s">
+      <c r="F24" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="G24" s="23" t="s">
+      <c r="G24" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="H24" s="22"/>
-      <c r="I24" s="23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="34" spans="1:9">
-      <c r="A25" s="10">
+      <c r="H24" s="23"/>
+      <c r="I24" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" s="14" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="A25" s="19">
         <v>24</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="F25" s="22" t="s">
+      <c r="F25" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="G25" s="23" t="s">
+      <c r="G25" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="H25" s="22"/>
-      <c r="I25" s="23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="34" spans="1:9">
-      <c r="A26" s="10">
+      <c r="H25" s="23"/>
+      <c r="I25" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" s="14" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="A26" s="19">
         <v>25</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="F26" s="22" t="s">
+      <c r="F26" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="G26" s="23" t="s">
+      <c r="G26" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="H26" s="22"/>
-      <c r="I26" s="23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" s="3" customFormat="1" ht="34" spans="1:9">
-      <c r="A27" s="10">
+      <c r="H26" s="23"/>
+      <c r="I26" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" s="16" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="A27" s="19">
         <v>26</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="F27" s="22" t="s">
+      <c r="F27" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="G27" s="23" t="s">
+      <c r="G27" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="H27" s="22"/>
-      <c r="I27" s="23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="34" spans="1:9">
-      <c r="A28" s="10">
+      <c r="H27" s="23"/>
+      <c r="I27" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" s="14" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="A28" s="19">
         <v>27</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="F28" s="22" t="s">
+      <c r="F28" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="G28" s="23" t="s">
+      <c r="G28" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="H28" s="22"/>
-      <c r="I28" s="23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" ht="18" spans="1:9">
-      <c r="A29" s="13">
-        <v>100</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" ht="18" spans="1:9">
-      <c r="A30" s="13">
-        <v>101</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" ht="18" spans="1:9">
-      <c r="A31" s="13">
-        <v>102</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" ht="18" spans="1:9">
-      <c r="A32" s="13">
-        <v>103</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" ht="18" spans="1:9">
-      <c r="A33" s="13">
-        <v>104</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" ht="18" spans="1:9">
-      <c r="A34" s="13">
-        <v>105</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" ht="18" spans="1:9">
-      <c r="A35" s="13">
-        <v>106</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" ht="18" spans="1:9">
-      <c r="A36" s="13">
-        <v>107</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E36" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" ht="18" spans="1:9">
-      <c r="A37" s="13">
-        <v>108</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E37" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" ht="18" spans="1:9">
-      <c r="A38" s="13">
-        <v>109</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="E38" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" ht="18" spans="1:9">
-      <c r="A39" s="13">
-        <v>110</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E39" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" ht="18" spans="1:9">
-      <c r="A40" s="13">
-        <v>111</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="E40" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" ht="18" spans="1:9">
-      <c r="A41" s="13">
-        <v>112</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="42" ht="18" spans="1:9">
-      <c r="A42" s="13">
-        <v>113</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="43" ht="18" spans="1:9">
-      <c r="A43" s="13">
-        <v>114</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="44" ht="18" spans="1:9">
-      <c r="A44" s="13">
-        <v>115</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="45" ht="18" spans="1:9">
-      <c r="A45" s="13">
-        <v>116</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="46" ht="18" spans="1:9">
-      <c r="A46" s="13">
-        <v>117</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="47" ht="18" spans="1:9">
-      <c r="A47" s="13">
-        <v>118</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="48" ht="18" spans="1:9">
-      <c r="A48" s="13">
-        <v>119</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="49" ht="18" spans="1:9">
-      <c r="A49" s="13">
-        <v>120</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17" t="s">
-        <v>142</v>
+      <c r="H28" s="23"/>
+      <c r="I28" s="24" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -3069,4 +2660,667 @@
   <pageSetup paperSize="9" scale="80" orientation="landscape"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
+  <cols>
+    <col min="3" max="3" width="25.8928571428571" customWidth="1"/>
+    <col min="4" max="4" width="27.5267857142857" customWidth="1"/>
+    <col min="5" max="5" width="24.1071428571429" customWidth="1"/>
+    <col min="6" max="6" width="18.75" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="14.2767857142857" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" ht="26" customHeight="1" spans="1:9">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="10">
+        <v>2130</v>
+      </c>
+      <c r="H2" s="10">
+        <v>2133</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" ht="26" customHeight="1" spans="1:9">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G3" s="11">
+        <v>3234</v>
+      </c>
+      <c r="H3" s="11">
+        <v>124</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" ht="26" customHeight="1" spans="1:9">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="11">
+        <v>4532</v>
+      </c>
+      <c r="H4" s="11">
+        <v>3454</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" ht="26" customHeight="1" spans="1:9">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G5" s="10">
+        <v>2130</v>
+      </c>
+      <c r="H5" s="10">
+        <v>2133</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" ht="26" customHeight="1" spans="1:9">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G6" s="11">
+        <v>3234</v>
+      </c>
+      <c r="H6" s="11">
+        <v>124</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" ht="26" customHeight="1" spans="1:9">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G7" s="11">
+        <v>4532</v>
+      </c>
+      <c r="H7" s="11">
+        <v>3454</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" ht="26" customHeight="1" spans="1:9">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G8" s="10">
+        <v>2130</v>
+      </c>
+      <c r="H8" s="10">
+        <v>2133</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" ht="26" customHeight="1" spans="1:9">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G9" s="11">
+        <v>3234</v>
+      </c>
+      <c r="H9" s="11">
+        <v>124</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" ht="26" customHeight="1" spans="1:9">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G10" s="11">
+        <v>4532</v>
+      </c>
+      <c r="H10" s="11">
+        <v>3454</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" ht="26" customHeight="1" spans="1:9">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" s="10">
+        <v>2130</v>
+      </c>
+      <c r="H11" s="10">
+        <v>2133</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" ht="26" customHeight="1" spans="1:9">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" s="11">
+        <v>3234</v>
+      </c>
+      <c r="H12" s="11">
+        <v>124</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" ht="26" customHeight="1" spans="1:9">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" s="11">
+        <v>4532</v>
+      </c>
+      <c r="H13" s="11">
+        <v>3454</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" ht="26" customHeight="1" spans="1:9">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G14" s="10">
+        <v>2130</v>
+      </c>
+      <c r="H14" s="10">
+        <v>2133</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" ht="26" customHeight="1" spans="1:9">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G15" s="11">
+        <v>3234</v>
+      </c>
+      <c r="H15" s="11">
+        <v>124</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" ht="26" customHeight="1" spans="1:9">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G16" s="11">
+        <v>4532</v>
+      </c>
+      <c r="H16" s="11">
+        <v>3454</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" ht="26" customHeight="1" spans="1:9">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G17" s="10">
+        <v>2130</v>
+      </c>
+      <c r="H17" s="10">
+        <v>2133</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" ht="26" customHeight="1" spans="1:9">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G18" s="11">
+        <v>3234</v>
+      </c>
+      <c r="H18" s="11">
+        <v>124</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" ht="26" customHeight="1" spans="1:9">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G19" s="11">
+        <v>4532</v>
+      </c>
+      <c r="H19" s="11">
+        <v>3454</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" ht="26" customHeight="1" spans="1:9">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G20" s="10">
+        <v>2130</v>
+      </c>
+      <c r="H20" s="10">
+        <v>2133</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" ht="26" customHeight="1" spans="1:9">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G21" s="11">
+        <v>3234</v>
+      </c>
+      <c r="H21" s="11">
+        <v>124</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" ht="26" customHeight="1" spans="1:9">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="11">
+        <v>4532</v>
+      </c>
+      <c r="H22" s="11">
+        <v>3454</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/maps/data/demo.xlsx
+++ b/maps/data/demo.xlsx
@@ -63,7 +63,7 @@
     <t>积水点</t>
   </si>
   <si>
-    <t>蔡家街（宫后路到白河路段）</t>
+    <t>积水点1</t>
   </si>
   <si>
     <t>120.549034°E
@@ -88,7 +88,7 @@
     <t>是</t>
   </si>
   <si>
-    <t>西五街和龙湖路口</t>
+    <t>积水点2</t>
   </si>
   <si>
     <t>120.526483°E
@@ -104,7 +104,7 @@
 </t>
   </si>
   <si>
-    <t>西城路德雅花园门口（西一街到西三街中间）</t>
+    <t>积水点3</t>
   </si>
   <si>
     <t>120.532557°E
@@ -115,7 +115,7 @@
 2、有沿街商户将油污偷倒入雨水井情况，水务已多次疏通；</t>
   </si>
   <si>
-    <t>双排街与纺织五街口</t>
+    <t>积水点4</t>
   </si>
   <si>
     <t>120.539689°E
@@ -128,7 +128,7 @@
     <t>1、资规局：正在开展纺织五街道路改造工程；</t>
   </si>
   <si>
-    <t>象湖路2117号</t>
+    <t>积水点5</t>
   </si>
   <si>
     <t>120.510271°E
@@ -142,7 +142,7 @@
 2、水务公司：改造完成前及时采取强排及疏通措施（根据雨情积水情况派出500m³/H或者180m³/H排涝车）；</t>
   </si>
   <si>
-    <t>兴民街（江口老人公寓门口）</t>
+    <t>积水点6</t>
   </si>
   <si>
     <t>120.561465°E
@@ -153,7 +153,7 @@
 2、水务公司：改造完成前及时采取强排及疏通措施；</t>
   </si>
   <si>
-    <t>通港路与龙金大道路口（绿城大厦）旁边</t>
+    <t>积水点7</t>
   </si>
   <si>
     <t>120.534257°E
@@ -169,7 +169,7 @@
 3、资规局、执法局：加强工地监管执法；</t>
   </si>
   <si>
-    <t>龙新路和松涛路口（东侧）</t>
+    <t>积水点8</t>
   </si>
   <si>
     <t>120.584032°E
@@ -180,7 +180,7 @@
 </t>
   </si>
   <si>
-    <t>海景路（东塘路至228国道）</t>
+    <t>积水点9</t>
   </si>
   <si>
     <t>120.614949°E
@@ -194,7 +194,7 @@
 2、水务公司：改造完成前及时采取强排及疏通措施（（根据雨情积水情况派出500m³/H或者180m³/H排涝车））；</t>
   </si>
   <si>
-    <t>高科路（228国道至龙翔路，芦浦诚德前）</t>
+    <t>积水点10</t>
   </si>
   <si>
     <t>120.601109°E
@@ -209,7 +209,7 @@
 2、水务公司：改造完成前及时采取强排及疏通措施（根据雨情积水情况派出500m³/H或者180m³/H排涝车）；</t>
   </si>
   <si>
-    <t>时代大道 金海岸旁边</t>
+    <t>积水点11</t>
   </si>
   <si>
     <t>120.628740°E
@@ -224,7 +224,7 @@
 2、水务公司：及时采取强排及疏通措施（根据雨情积水情况派出1600m³/H或500m³/H排涝车）；</t>
   </si>
   <si>
-    <t>纺织小区（双排街95号）</t>
+    <t>积水点12</t>
   </si>
   <si>
     <t>120.536198°E
@@ -239,14 +239,14 @@
 2、水务公司：改造完成前及时采取强排及疏通措施（根据雨情积水情况派出500m³/H或者180m³/H排涝车）；</t>
   </si>
   <si>
-    <t>双排街320号</t>
+    <t>积水点13</t>
   </si>
   <si>
     <t>120.539433°E
 27.568642°N</t>
   </si>
   <si>
-    <t>三垟社区，农贸市场仓前路</t>
+    <t>积水点14</t>
   </si>
   <si>
     <t>120.518403°E
@@ -263,7 +263,7 @@
 2、水务公司：改造完成前及时采取强排及疏通措施（根据雨情积水情况派出500m³/H或者180m³/H排涝车）；</t>
   </si>
   <si>
-    <t>江湾路（金城花园等路段）</t>
+    <t>积水点15</t>
   </si>
   <si>
     <t>120.544706°E
@@ -281,7 +281,7 @@
     <t>应急类</t>
   </si>
   <si>
-    <t>东方花苑（涂厂村二区 18 号）后周边老宅</t>
+    <t>积水点16</t>
   </si>
   <si>
     <t>120.579316°E
@@ -294,14 +294,14 @@
     <t>1、水务公司：及时采取强排及疏通措施（根据雨情积水情况派出500m³/H或者180m³/H排涝车）；</t>
   </si>
   <si>
-    <t>湖前西桥社区</t>
+    <t>积水点17</t>
   </si>
   <si>
     <t>120.514892°E
 27.568717°N</t>
   </si>
   <si>
-    <t>第一菜市场（沿河南路、北路20号左右）</t>
+    <t>积水点18</t>
   </si>
   <si>
     <t xml:space="preserve">120.548384, 27.586364
@@ -315,7 +315,7 @@
 2、农业农村局：建议海塘安澜工程实施时，在外滩建设强排站；</t>
   </si>
   <si>
-    <t>陶瓷市场（市场内部、新渡街）</t>
+    <t>积水点19</t>
   </si>
   <si>
     <t>120.549122, 27.590792</t>
@@ -324,7 +324,7 @@
     <t>1、地势低洼，拆迁区域；</t>
   </si>
   <si>
-    <t>芦浦中心菜市场</t>
+    <t>积水点20</t>
   </si>
   <si>
     <t>120.5993421°E
@@ -338,7 +338,7 @@
     <t>新增</t>
   </si>
   <si>
-    <t>东塘路（霞飞路至东海大道）</t>
+    <t>积水点21</t>
   </si>
   <si>
     <t>120.601922°E
@@ -355,7 +355,7 @@
     <t>修复类</t>
   </si>
   <si>
-    <t>龙翔路与通港路路口</t>
+    <t>积水点22</t>
   </si>
   <si>
     <t>120.557024, 27.576763</t>
@@ -369,7 +369,7 @@
 2、资规局、执法局：加强工地监管执法；</t>
   </si>
   <si>
-    <t>世纪大道与龙虹路口</t>
+    <t>积水点23</t>
   </si>
   <si>
     <t>120.560831°E
@@ -379,7 +379,7 @@
     <t>1、管道破损；</t>
   </si>
   <si>
-    <t>洪口路398号</t>
+    <t>积水点24</t>
   </si>
   <si>
     <t>120.550941°E
@@ -389,14 +389,14 @@
     <t>1、水务公司：局部开挖修复，正在修复，6月底前完成；</t>
   </si>
   <si>
-    <t>龙翔路498号前</t>
+    <t>积水点25</t>
   </si>
   <si>
     <t>120.554122°E
 27.582984°N</t>
   </si>
   <si>
-    <t>前陈路</t>
+    <t>积水点26</t>
   </si>
   <si>
     <t>120.569867°E
@@ -409,7 +409,7 @@
     <t>1、水务公司：已疏通完成，后续跟进观察；</t>
   </si>
   <si>
-    <t>龙新路与松阳路交叉口</t>
+    <t>积水点27</t>
   </si>
   <si>
     <t>120.581157°E
@@ -434,7 +434,7 @@
     <t>避灾点</t>
   </si>
   <si>
-    <t>二中</t>
+    <t>避灾点1</t>
   </si>
   <si>
     <t>120.55651038,27.57505425</t>
@@ -446,7 +446,7 @@
     <t>A</t>
   </si>
   <si>
-    <t>外国语小学新城校区</t>
+    <t>避灾点2</t>
   </si>
   <si>
     <t>120.608454, 27.572549</t>
@@ -458,7 +458,7 @@
     <t>B</t>
   </si>
   <si>
-    <t>职业中专新城校区</t>
+    <t>避灾点3</t>
   </si>
   <si>
     <t>120.622799, 27.525251</t>
@@ -470,19 +470,19 @@
     <t>C</t>
   </si>
   <si>
-    <t>姜立夫小学</t>
+    <t>避灾点4</t>
   </si>
   <si>
     <t>120.56935445,27.56009679</t>
   </si>
   <si>
-    <t>十三小</t>
+    <t>避灾点5</t>
   </si>
   <si>
     <t>120.58067285,27.57615819</t>
   </si>
   <si>
-    <t>二小</t>
+    <t>避灾点6</t>
   </si>
   <si>
     <t>120.62462546,27.48440022</t>
@@ -491,7 +491,7 @@
     <t>可容纳人数400</t>
   </si>
   <si>
-    <t>九中</t>
+    <t>避灾点7</t>
   </si>
   <si>
     <t>120.52072158,27.56722020</t>
@@ -500,37 +500,37 @@
     <t>可容纳人数350</t>
   </si>
   <si>
-    <t>十二小</t>
+    <t>避灾点8</t>
   </si>
   <si>
     <t>120.54403082,27.55000113</t>
   </si>
   <si>
-    <t>十四中</t>
+    <t>避灾点9</t>
   </si>
   <si>
     <t>可容纳人数300</t>
   </si>
   <si>
-    <t>实验小学</t>
+    <t>避灾点10</t>
   </si>
   <si>
     <t>120.62217463,27.49457940</t>
   </si>
   <si>
-    <t>实验中学</t>
+    <t>避灾点11</t>
   </si>
   <si>
     <t>120.535600, 27.561900</t>
   </si>
   <si>
-    <t>四中</t>
+    <t>避灾点12</t>
   </si>
   <si>
     <t>120.527255, 27.583629</t>
   </si>
   <si>
-    <t>龙港一小</t>
+    <t>避灾点13</t>
   </si>
   <si>
     <t>120.535600, 27.561901</t>
@@ -539,49 +539,49 @@
     <t>否</t>
   </si>
   <si>
-    <t>龙港三中</t>
+    <t>避灾点14</t>
   </si>
   <si>
     <t>120.527255, 27.583630</t>
   </si>
   <si>
-    <t>龙港宏程小学</t>
+    <t>避灾点15</t>
   </si>
   <si>
     <t>120.535600, 27.561902</t>
   </si>
   <si>
-    <t>龙港九小</t>
+    <t>避灾点16</t>
   </si>
   <si>
     <t>120.527255, 27.583631</t>
   </si>
   <si>
-    <t>江南实验小学</t>
+    <t>避灾点17</t>
   </si>
   <si>
     <t>120.535600, 27.561903</t>
   </si>
   <si>
-    <t>潜龙学校</t>
+    <t>避灾点18</t>
   </si>
   <si>
     <t>120.527255, 27.583632</t>
   </si>
   <si>
-    <t>海城小学</t>
+    <t>避灾点19</t>
   </si>
   <si>
     <t>120.535600, 27.561904</t>
   </si>
   <si>
-    <t>江山小学</t>
+    <t>避灾点20</t>
   </si>
   <si>
     <t>120.527255, 27.583633</t>
   </si>
   <si>
-    <t>龙港体育馆</t>
+    <t>避灾点21</t>
   </si>
   <si>
     <t>120.535600, 27.561905</t>
@@ -1263,7 +1263,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1282,9 +1282,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1296,9 +1293,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1872,20 +1866,20 @@
     <sheetView tabSelected="1" zoomScale="143" zoomScaleNormal="143" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="7.4375" style="17" customWidth="1"/>
-    <col min="2" max="2" width="10.7053571428571" style="17" customWidth="1"/>
-    <col min="3" max="3" width="34.6428571428571" style="18" customWidth="1"/>
-    <col min="4" max="4" width="29.9642857142857" style="17" customWidth="1"/>
-    <col min="5" max="5" width="40.1071428571429" style="17" customWidth="1"/>
-    <col min="6" max="6" width="33.2232142857143" style="17" customWidth="1"/>
-    <col min="7" max="7" width="16.0714285714286" style="17" customWidth="1"/>
-    <col min="8" max="8" width="16.3303571428571" style="17" customWidth="1"/>
-    <col min="9" max="16384" width="9.14285714285714" style="17"/>
+    <col min="1" max="1" width="7.4375" style="15" customWidth="1"/>
+    <col min="2" max="2" width="10.7053571428571" style="15" customWidth="1"/>
+    <col min="3" max="3" width="34.6428571428571" style="16" customWidth="1"/>
+    <col min="4" max="4" width="29.9642857142857" style="15" customWidth="1"/>
+    <col min="5" max="5" width="40.1071428571429" style="15" customWidth="1"/>
+    <col min="6" max="6" width="33.2232142857143" style="15" customWidth="1"/>
+    <col min="7" max="7" width="16.0714285714286" style="15" customWidth="1"/>
+    <col min="8" max="8" width="16.3303571428571" style="15" customWidth="1"/>
+    <col min="9" max="16384" width="9.14285714285714" style="15"/>
   </cols>
   <sheetData>
     <row r="1" ht="27" customHeight="1" spans="1:9">
@@ -1907,750 +1901,750 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="20" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="14" customFormat="1" ht="33" customHeight="1" spans="1:9">
-      <c r="A2" s="19">
+    <row r="2" s="12" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" s="14" customFormat="1" ht="33" customHeight="1" spans="1:9">
-      <c r="A3" s="19">
+      <c r="I2" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" s="12" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" s="15" customFormat="1" ht="33" customHeight="1" spans="1:9">
-      <c r="A4" s="19">
+      <c r="I3" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" s="13" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" s="15" customFormat="1" ht="33" customHeight="1" spans="1:9">
-      <c r="A5" s="19">
+      <c r="I4" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" s="13" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="23"/>
-      <c r="I5" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" s="14" customFormat="1" ht="33" customHeight="1" spans="1:9">
-      <c r="A6" s="19">
+      <c r="H5" s="21"/>
+      <c r="I5" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" s="12" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="23"/>
-      <c r="I6" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" s="14" customFormat="1" ht="33" customHeight="1" spans="1:9">
-      <c r="A7" s="19">
+      <c r="H6" s="21"/>
+      <c r="I6" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" s="12" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="A7" s="17">
         <v>6</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="23"/>
-      <c r="I7" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" s="14" customFormat="1" ht="33" customHeight="1" spans="1:9">
-      <c r="A8" s="19">
+      <c r="H7" s="21"/>
+      <c r="I7" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" s="12" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="A8" s="17">
         <v>7</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="23"/>
-      <c r="I8" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" s="14" customFormat="1" ht="33" customHeight="1" spans="1:9">
-      <c r="A9" s="19">
+      <c r="H8" s="21"/>
+      <c r="I8" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" s="12" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="A9" s="17">
         <v>8</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="23"/>
-      <c r="I9" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" s="14" customFormat="1" ht="33" customHeight="1" spans="1:9">
-      <c r="A10" s="19">
+      <c r="H9" s="21"/>
+      <c r="I9" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" s="12" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="A10" s="17">
         <v>9</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" s="14" customFormat="1" ht="33" customHeight="1" spans="1:9">
-      <c r="A11" s="19">
+      <c r="H10" s="21"/>
+      <c r="I10" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" s="12" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="A11" s="17">
         <v>10</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="23"/>
-      <c r="I11" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" s="14" customFormat="1" ht="33" customHeight="1" spans="1:9">
-      <c r="A12" s="19">
+      <c r="H11" s="21"/>
+      <c r="I11" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" s="12" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="A12" s="17">
         <v>11</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="G12" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="23"/>
-      <c r="I12" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" s="15" customFormat="1" ht="33" customHeight="1" spans="1:9">
-      <c r="A13" s="19">
+      <c r="H12" s="21"/>
+      <c r="I12" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" s="13" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="A13" s="17">
         <v>12</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="23"/>
-      <c r="I13" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" s="15" customFormat="1" ht="33" customHeight="1" spans="1:9">
-      <c r="A14" s="19">
+      <c r="H13" s="21"/>
+      <c r="I13" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" s="13" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="A14" s="17">
         <v>13</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="G14" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="23"/>
-      <c r="I14" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" s="14" customFormat="1" ht="33" customHeight="1" spans="1:9">
-      <c r="A15" s="19">
+      <c r="H14" s="21"/>
+      <c r="I14" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" s="12" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="A15" s="17">
         <v>14</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="G15" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="23"/>
-      <c r="I15" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" s="14" customFormat="1" ht="33" customHeight="1" spans="1:9">
-      <c r="A16" s="19">
+      <c r="H15" s="21"/>
+      <c r="I15" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" s="12" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="A16" s="17">
         <v>15</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="G16" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="H16" s="23"/>
-      <c r="I16" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" s="14" customFormat="1" ht="33" customHeight="1" spans="1:9">
-      <c r="A17" s="19">
-        <v>16</v>
-      </c>
-      <c r="B17" s="19" t="s">
+      <c r="H16" s="21"/>
+      <c r="I16" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" s="12" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="A17" s="17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="G17" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="H17" s="23"/>
-      <c r="I17" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" s="15" customFormat="1" ht="33" customHeight="1" spans="1:9">
-      <c r="A18" s="19">
+      <c r="H17" s="21"/>
+      <c r="I17" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" s="13" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="A18" s="17">
         <v>17</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="F18" s="23" t="s">
+      <c r="F18" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="G18" s="24" t="s">
+      <c r="G18" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="H18" s="23"/>
-      <c r="I18" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" s="14" customFormat="1" ht="33" customHeight="1" spans="1:9">
-      <c r="A19" s="19">
+      <c r="H18" s="21"/>
+      <c r="I18" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" s="12" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="A19" s="17">
         <v>18</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="G19" s="24" t="s">
+      <c r="G19" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="H19" s="23"/>
-      <c r="I19" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" s="14" customFormat="1" ht="33" customHeight="1" spans="1:9">
-      <c r="A20" s="19">
+      <c r="H19" s="21"/>
+      <c r="I19" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" s="12" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="A20" s="17">
         <v>19</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="F20" s="23" t="s">
+      <c r="F20" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="G20" s="24" t="s">
+      <c r="G20" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="H20" s="23"/>
-      <c r="I20" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" s="14" customFormat="1" ht="33" customHeight="1" spans="1:9">
-      <c r="A21" s="19">
+      <c r="H20" s="21"/>
+      <c r="I20" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" s="12" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="A21" s="17">
         <v>20</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="G21" s="24" t="s">
+      <c r="G21" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="H21" s="24" t="s">
+      <c r="H21" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="I21" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" s="14" customFormat="1" ht="33" customHeight="1" spans="1:9">
-      <c r="A22" s="19">
+      <c r="I21" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" s="12" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="A22" s="17">
         <v>21</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="F22" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="G22" s="24" t="s">
+      <c r="G22" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="H22" s="23"/>
-      <c r="I22" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" s="14" customFormat="1" ht="33" customHeight="1" spans="1:9">
-      <c r="A23" s="19">
+      <c r="H22" s="21"/>
+      <c r="I22" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" s="12" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="A23" s="17">
         <v>22</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="E23" s="23" t="s">
+      <c r="E23" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="F23" s="23" t="s">
+      <c r="F23" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="G23" s="24" t="s">
+      <c r="G23" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="H23" s="23"/>
-      <c r="I23" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" s="14" customFormat="1" ht="33" customHeight="1" spans="1:9">
-      <c r="A24" s="19">
+      <c r="H23" s="21"/>
+      <c r="I23" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" s="12" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="A24" s="17">
         <v>23</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E24" s="23" t="s">
+      <c r="E24" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="F24" s="23" t="s">
+      <c r="F24" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="G24" s="24" t="s">
+      <c r="G24" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="H24" s="23"/>
-      <c r="I24" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" s="14" customFormat="1" ht="33" customHeight="1" spans="1:9">
-      <c r="A25" s="19">
+      <c r="H24" s="21"/>
+      <c r="I24" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" s="12" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="A25" s="17">
         <v>24</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="E25" s="23" t="s">
+      <c r="E25" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="F25" s="23" t="s">
+      <c r="F25" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="G25" s="24" t="s">
+      <c r="G25" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="H25" s="23"/>
-      <c r="I25" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" s="14" customFormat="1" ht="33" customHeight="1" spans="1:9">
-      <c r="A26" s="19">
+      <c r="H25" s="21"/>
+      <c r="I25" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" s="12" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="A26" s="17">
         <v>25</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="E26" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="F26" s="23" t="s">
+      <c r="F26" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="G26" s="24" t="s">
+      <c r="G26" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="H26" s="23"/>
-      <c r="I26" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" s="16" customFormat="1" ht="33" customHeight="1" spans="1:9">
-      <c r="A27" s="19">
+      <c r="H26" s="21"/>
+      <c r="I26" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" s="14" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="A27" s="17">
         <v>26</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="F27" s="23" t="s">
+      <c r="F27" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="G27" s="24" t="s">
+      <c r="G27" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" s="14" customFormat="1" ht="33" customHeight="1" spans="1:9">
-      <c r="A28" s="19">
+      <c r="H27" s="21"/>
+      <c r="I27" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" s="12" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="A28" s="17">
         <v>27</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="E28" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="F28" s="23" t="s">
+      <c r="F28" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="G28" s="24" t="s">
+      <c r="G28" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="H28" s="23"/>
-      <c r="I28" s="24" t="s">
+      <c r="H28" s="21"/>
+      <c r="I28" s="22" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2668,7 +2662,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
@@ -2700,13 +2694,13 @@
       <c r="F1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>112</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2723,19 +2717,19 @@
       <c r="D2" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="9">
         <v>2130</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="9">
         <v>2133</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="11" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2746,25 +2740,25 @@
       <c r="B3" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="6">
         <v>3234</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="6">
         <v>124</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="11" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2775,25 +2769,25 @@
       <c r="B4" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="6">
         <v>4532</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="6">
         <v>3454</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="11" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2804,25 +2798,25 @@
       <c r="B5" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="9">
         <v>2130</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="9">
         <v>2133</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="11" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2833,25 +2827,25 @@
       <c r="B6" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="6">
         <v>3234</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="6">
         <v>124</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="11" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2862,25 +2856,25 @@
       <c r="B7" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="6">
         <v>4532</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="6">
         <v>3454</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="11" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2891,25 +2885,25 @@
       <c r="B8" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="9">
         <v>2130</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="9">
         <v>2133</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="11" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2920,25 +2914,25 @@
       <c r="B9" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="6">
         <v>3234</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="6">
         <v>124</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="11" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2949,25 +2943,25 @@
       <c r="B10" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="6">
         <v>4532</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="6">
         <v>3454</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="11" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2978,25 +2972,25 @@
       <c r="B11" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="9">
         <v>2130</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="9">
         <v>2133</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="I11" s="11" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3007,25 +3001,25 @@
       <c r="B12" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="6">
         <v>3234</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="6">
         <v>124</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="I12" s="11" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3036,25 +3030,25 @@
       <c r="B13" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="6">
         <v>4532</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="6">
         <v>3454</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="I13" s="11" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3065,25 +3059,25 @@
       <c r="B14" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="9">
         <v>2130</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="9">
         <v>2133</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="6" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3094,25 +3088,25 @@
       <c r="B15" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="6">
         <v>3234</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="6">
         <v>124</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="6" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3123,25 +3117,25 @@
       <c r="B16" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="6">
         <v>4532</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="6">
         <v>3454</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="6" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3152,25 +3146,25 @@
       <c r="B17" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="9">
         <v>2130</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="9">
         <v>2133</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="6" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3181,25 +3175,25 @@
       <c r="B18" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="6">
         <v>3234</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="6">
         <v>124</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="6" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3210,25 +3204,25 @@
       <c r="B19" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="6">
         <v>4532</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="6">
         <v>3454</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="6" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3239,25 +3233,25 @@
       <c r="B20" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="9">
         <v>2130</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="9">
         <v>2133</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="6" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3268,25 +3262,25 @@
       <c r="B21" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="6">
         <v>3234</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" s="6">
         <v>124</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I21" s="6" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3297,25 +3291,25 @@
       <c r="B22" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="6">
         <v>4532</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22" s="6">
         <v>3454</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="I22" s="6" t="s">
         <v>149</v>
       </c>
     </row>
